--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Cxadr</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.350057</v>
+        <v>2.868906666666667</v>
       </c>
       <c r="H2">
-        <v>7.050171</v>
+        <v>8.606720000000001</v>
       </c>
       <c r="I2">
-        <v>0.2400817811088894</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="J2">
-        <v>0.2400817811088894</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.350057</v>
+        <v>2.868906666666667</v>
       </c>
       <c r="N2">
-        <v>7.050171</v>
+        <v>8.606720000000001</v>
       </c>
       <c r="O2">
-        <v>0.2400817811088894</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="P2">
-        <v>0.2400817811088894</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="Q2">
-        <v>5.522767903249</v>
+        <v>8.230625462044447</v>
       </c>
       <c r="R2">
-        <v>49.704911129241</v>
+        <v>74.07562915840002</v>
       </c>
       <c r="S2">
-        <v>0.05763926162041669</v>
+        <v>0.05846990608297651</v>
       </c>
       <c r="T2">
-        <v>0.05763926162041667</v>
+        <v>0.05846990608297651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.350057</v>
+        <v>2.868906666666667</v>
       </c>
       <c r="H3">
-        <v>7.050171</v>
+        <v>8.606720000000001</v>
       </c>
       <c r="I3">
-        <v>0.2400817811088894</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="J3">
-        <v>0.2400817811088894</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>3.865542</v>
       </c>
       <c r="O3">
-        <v>0.1316345672057059</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="P3">
-        <v>0.1316345672057059</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="Q3">
-        <v>3.028081345298001</v>
+        <v>3.696626404693335</v>
       </c>
       <c r="R3">
-        <v>27.252732107682</v>
+        <v>33.26963764224001</v>
       </c>
       <c r="S3">
-        <v>0.03160306135024367</v>
+        <v>0.02626062863667009</v>
       </c>
       <c r="T3">
-        <v>0.03160306135024366</v>
+        <v>0.02626062863667009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.350057</v>
+        <v>2.868906666666667</v>
       </c>
       <c r="H4">
-        <v>7.050171</v>
+        <v>8.606720000000001</v>
       </c>
       <c r="I4">
-        <v>0.2400817811088894</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="J4">
-        <v>0.2400817811088894</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.896675</v>
+        <v>1.560148333333333</v>
       </c>
       <c r="N4">
-        <v>2.690025</v>
+        <v>4.680445</v>
       </c>
       <c r="O4">
-        <v>0.09160430197046855</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="P4">
-        <v>0.09160430197046854</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="Q4">
-        <v>2.107237360475</v>
+        <v>4.475919954488889</v>
       </c>
       <c r="R4">
-        <v>18.965136244275</v>
+        <v>40.2832795904</v>
       </c>
       <c r="S4">
-        <v>0.02199252397430664</v>
+        <v>0.03179668672578368</v>
       </c>
       <c r="T4">
-        <v>0.02199252397430663</v>
+        <v>0.03179668672578368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -723,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.350057</v>
+        <v>2.868906666666667</v>
       </c>
       <c r="H5">
-        <v>7.050171</v>
+        <v>8.606720000000001</v>
       </c>
       <c r="I5">
-        <v>0.2400817811088894</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="J5">
-        <v>0.2400817811088894</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.357582333333333</v>
+        <v>2.533054</v>
       </c>
       <c r="N5">
-        <v>7.072747</v>
+        <v>7.599162</v>
       </c>
       <c r="O5">
-        <v>0.2408505690276951</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="P5">
-        <v>0.2408505690276951</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="Q5">
-        <v>5.540452865526333</v>
+        <v>7.267095507626668</v>
       </c>
       <c r="R5">
-        <v>49.86407578973699</v>
+        <v>65.40385956864</v>
       </c>
       <c r="S5">
-        <v>0.05782383359325855</v>
+        <v>0.0516250428094935</v>
       </c>
       <c r="T5">
-        <v>0.05782383359325853</v>
+        <v>0.0516250428094935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -785,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.350057</v>
+        <v>2.868906666666667</v>
       </c>
       <c r="H6">
-        <v>7.050171</v>
+        <v>8.606720000000001</v>
       </c>
       <c r="I6">
-        <v>0.2400817811088894</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="J6">
-        <v>0.2400817811088894</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,43 +806,43 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.895740333333334</v>
+        <v>3.511243333333333</v>
       </c>
       <c r="N6">
-        <v>8.687221000000001</v>
+        <v>10.53373</v>
       </c>
       <c r="O6">
-        <v>0.2958287806872412</v>
+        <v>0.2959447949634939</v>
       </c>
       <c r="P6">
-        <v>0.2958287806872411</v>
+        <v>0.2959447949634939</v>
       </c>
       <c r="Q6">
-        <v>6.805154840532334</v>
+        <v>10.07342940728889</v>
       </c>
       <c r="R6">
-        <v>61.24639356479101</v>
+        <v>90.6608646656</v>
       </c>
       <c r="S6">
-        <v>0.07102310057066388</v>
+        <v>0.07156108294488865</v>
       </c>
       <c r="T6">
-        <v>0.07102310057066386</v>
+        <v>0.07156108294488865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -847,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.288514</v>
+        <v>2.868906666666667</v>
       </c>
       <c r="H7">
-        <v>3.865542</v>
+        <v>8.606720000000001</v>
       </c>
       <c r="I7">
-        <v>0.1316345672057059</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="J7">
-        <v>0.1316345672057059</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.350057</v>
+        <v>0.102655</v>
       </c>
       <c r="N7">
-        <v>7.050171</v>
+        <v>0.307965</v>
       </c>
       <c r="O7">
-        <v>0.2400817811088894</v>
+        <v>0.008652266460307262</v>
       </c>
       <c r="P7">
-        <v>0.2400817811088894</v>
+        <v>0.008652266460307262</v>
       </c>
       <c r="Q7">
-        <v>3.028081345298001</v>
+        <v>0.2945076138666667</v>
       </c>
       <c r="R7">
-        <v>27.252732107682</v>
+        <v>2.6505685248</v>
       </c>
       <c r="S7">
-        <v>0.03160306135024367</v>
+        <v>0.002092165729435123</v>
       </c>
       <c r="T7">
-        <v>0.03160306135024366</v>
+        <v>0.002092165729435123</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,10 +918,10 @@
         <v>3.865542</v>
       </c>
       <c r="I8">
-        <v>0.1316345672057059</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="J8">
-        <v>0.1316345672057059</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.288514</v>
+        <v>2.868906666666667</v>
       </c>
       <c r="N8">
-        <v>3.865542</v>
+        <v>8.606720000000001</v>
       </c>
       <c r="O8">
-        <v>0.1316345672057059</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="P8">
-        <v>0.1316345672057059</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="Q8">
-        <v>1.660268328196</v>
+        <v>3.696626404693335</v>
       </c>
       <c r="R8">
-        <v>14.942414953764</v>
+        <v>33.26963764224001</v>
       </c>
       <c r="S8">
-        <v>0.0173276592834335</v>
+        <v>0.02626062863667009</v>
       </c>
       <c r="T8">
-        <v>0.0173276592834335</v>
+        <v>0.02626062863667009</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +980,40 @@
         <v>3.865542</v>
       </c>
       <c r="I9">
-        <v>0.1316345672057059</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="J9">
-        <v>0.1316345672057059</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.896675</v>
+        <v>1.288514</v>
       </c>
       <c r="N9">
-        <v>2.690025</v>
+        <v>3.865542</v>
       </c>
       <c r="O9">
-        <v>0.09160430197046855</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="P9">
-        <v>0.09160430197046854</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="Q9">
-        <v>1.15537829095</v>
+        <v>1.660268328196</v>
       </c>
       <c r="R9">
-        <v>10.39840461855</v>
+        <v>14.942414953764</v>
       </c>
       <c r="S9">
-        <v>0.01205829264406342</v>
+        <v>0.01179445397799057</v>
       </c>
       <c r="T9">
-        <v>0.01205829264406342</v>
+        <v>0.01179445397799057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,10 +1042,10 @@
         <v>3.865542</v>
       </c>
       <c r="I10">
-        <v>0.1316345672057059</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="J10">
-        <v>0.1316345672057059</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.357582333333333</v>
+        <v>1.560148333333333</v>
       </c>
       <c r="N10">
-        <v>7.072747</v>
+        <v>4.680445</v>
       </c>
       <c r="O10">
-        <v>0.2408505690276951</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="P10">
-        <v>0.2408505690276951</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="Q10">
-        <v>3.037777842652667</v>
+        <v>2.010272969576667</v>
       </c>
       <c r="R10">
-        <v>27.340000583874</v>
+        <v>18.09245672619</v>
       </c>
       <c r="S10">
-        <v>0.03170426041520863</v>
+        <v>0.01428086750810521</v>
       </c>
       <c r="T10">
-        <v>0.03170426041520863</v>
+        <v>0.01428086750810521</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,10 +1104,10 @@
         <v>3.865542</v>
       </c>
       <c r="I11">
-        <v>0.1316345672057059</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="J11">
-        <v>0.1316345672057059</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,60 +1116,60 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.895740333333334</v>
+        <v>2.533054</v>
       </c>
       <c r="N11">
-        <v>8.687221000000001</v>
+        <v>7.599162</v>
       </c>
       <c r="O11">
-        <v>0.2958287806872412</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="P11">
-        <v>0.2958287806872411</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="Q11">
-        <v>3.731201959864668</v>
+        <v>3.263875541756</v>
       </c>
       <c r="R11">
-        <v>33.58081763878201</v>
+        <v>29.374879875804</v>
       </c>
       <c r="S11">
-        <v>0.03894129351275667</v>
+        <v>0.02318639054505028</v>
       </c>
       <c r="T11">
-        <v>0.03894129351275667</v>
+        <v>0.02318639054505028</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.896675</v>
+        <v>1.288514</v>
       </c>
       <c r="H12">
-        <v>2.690025</v>
+        <v>3.865542</v>
       </c>
       <c r="I12">
-        <v>0.09160430197046855</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="J12">
-        <v>0.09160430197046854</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,90 +1178,90 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.350057</v>
+        <v>3.511243333333333</v>
       </c>
       <c r="N12">
-        <v>7.050171</v>
+        <v>10.53373</v>
       </c>
       <c r="O12">
-        <v>0.2400817811088894</v>
+        <v>0.2959447949634939</v>
       </c>
       <c r="P12">
-        <v>0.2400817811088894</v>
+        <v>0.2959447949634939</v>
       </c>
       <c r="Q12">
-        <v>2.107237360475</v>
+        <v>4.524286192406667</v>
       </c>
       <c r="R12">
-        <v>18.965136244275</v>
+        <v>40.71857573166</v>
       </c>
       <c r="S12">
-        <v>0.02199252397430664</v>
+        <v>0.03214027779327674</v>
       </c>
       <c r="T12">
-        <v>0.02199252397430663</v>
+        <v>0.03214027779327674</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.896675</v>
+        <v>1.288514</v>
       </c>
       <c r="H13">
-        <v>2.690025</v>
+        <v>3.865542</v>
       </c>
       <c r="I13">
-        <v>0.09160430197046855</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="J13">
-        <v>0.09160430197046854</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.288514</v>
+        <v>0.102655</v>
       </c>
       <c r="N13">
-        <v>3.865542</v>
+        <v>0.307965</v>
       </c>
       <c r="O13">
-        <v>0.1316345672057059</v>
+        <v>0.008652266460307262</v>
       </c>
       <c r="P13">
-        <v>0.1316345672057059</v>
+        <v>0.008652266460307262</v>
       </c>
       <c r="Q13">
-        <v>1.15537829095</v>
+        <v>0.13227240467</v>
       </c>
       <c r="R13">
-        <v>10.39840461855</v>
+        <v>1.19045164203</v>
       </c>
       <c r="S13">
-        <v>0.01205829264406342</v>
+        <v>0.0009396558152341546</v>
       </c>
       <c r="T13">
-        <v>0.01205829264406342</v>
+        <v>0.0009396558152341546</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1266,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.896675</v>
+        <v>1.560148333333333</v>
       </c>
       <c r="H14">
-        <v>2.690025</v>
+        <v>4.680445</v>
       </c>
       <c r="I14">
-        <v>0.09160430197046855</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="J14">
-        <v>0.09160430197046854</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.896675</v>
+        <v>2.868906666666667</v>
       </c>
       <c r="N14">
-        <v>2.690025</v>
+        <v>8.606720000000001</v>
       </c>
       <c r="O14">
-        <v>0.09160430197046855</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="P14">
-        <v>0.09160430197046854</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="Q14">
-        <v>0.804026055625</v>
+        <v>4.475919954488889</v>
       </c>
       <c r="R14">
-        <v>7.236234500625</v>
+        <v>40.2832795904</v>
       </c>
       <c r="S14">
-        <v>0.008391348139496789</v>
+        <v>0.03179668672578368</v>
       </c>
       <c r="T14">
-        <v>0.008391348139496786</v>
+        <v>0.03179668672578368</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1328,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.896675</v>
+        <v>1.560148333333333</v>
       </c>
       <c r="H15">
-        <v>2.690025</v>
+        <v>4.680445</v>
       </c>
       <c r="I15">
-        <v>0.09160430197046855</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="J15">
-        <v>0.09160430197046854</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.357582333333333</v>
+        <v>1.288514</v>
       </c>
       <c r="N15">
-        <v>7.072747</v>
+        <v>3.865542</v>
       </c>
       <c r="O15">
-        <v>0.2408505690276951</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="P15">
-        <v>0.2408505690276951</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="Q15">
-        <v>2.113985138741667</v>
+        <v>2.010272969576667</v>
       </c>
       <c r="R15">
-        <v>19.025866248675</v>
+        <v>18.09245672619</v>
       </c>
       <c r="S15">
-        <v>0.02206294825497216</v>
+        <v>0.01428086750810521</v>
       </c>
       <c r="T15">
-        <v>0.02206294825497215</v>
+        <v>0.01428086750810521</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1390,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.896675</v>
+        <v>1.560148333333333</v>
       </c>
       <c r="H16">
-        <v>2.690025</v>
+        <v>4.680445</v>
       </c>
       <c r="I16">
-        <v>0.09160430197046855</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="J16">
-        <v>0.09160430197046854</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,43 +1426,43 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.895740333333334</v>
+        <v>1.560148333333333</v>
       </c>
       <c r="N16">
-        <v>8.687221000000001</v>
+        <v>4.680445</v>
       </c>
       <c r="O16">
-        <v>0.2958287806872412</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="P16">
-        <v>0.2958287806872411</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="Q16">
-        <v>2.596537963391667</v>
+        <v>2.434062822002777</v>
       </c>
       <c r="R16">
-        <v>23.368841670525</v>
+        <v>21.906565398025</v>
       </c>
       <c r="S16">
-        <v>0.02709918895762956</v>
+        <v>0.01729144707882452</v>
       </c>
       <c r="T16">
-        <v>0.02709918895762954</v>
+        <v>0.01729144707882452</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1467,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.357582333333333</v>
+        <v>1.560148333333333</v>
       </c>
       <c r="H17">
-        <v>7.072747</v>
+        <v>4.680445</v>
       </c>
       <c r="I17">
-        <v>0.2408505690276951</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="J17">
-        <v>0.2408505690276951</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,42 +1488,42 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.350057</v>
+        <v>2.533054</v>
       </c>
       <c r="N17">
-        <v>7.050171</v>
+        <v>7.599162</v>
       </c>
       <c r="O17">
-        <v>0.2400817811088894</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="P17">
-        <v>0.2400817811088894</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="Q17">
-        <v>5.540452865526333</v>
+        <v>3.951939976343333</v>
       </c>
       <c r="R17">
-        <v>49.86407578973699</v>
+        <v>35.56745978708999</v>
       </c>
       <c r="S17">
-        <v>0.05782383359325855</v>
+        <v>0.02807436206737058</v>
       </c>
       <c r="T17">
-        <v>0.05782383359325853</v>
+        <v>0.02807436206737058</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1529,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.357582333333333</v>
+        <v>1.560148333333333</v>
       </c>
       <c r="H18">
-        <v>7.072747</v>
+        <v>4.680445</v>
       </c>
       <c r="I18">
-        <v>0.2408505690276951</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="J18">
-        <v>0.2408505690276951</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1547,43 +1550,43 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.288514</v>
+        <v>3.511243333333333</v>
       </c>
       <c r="N18">
-        <v>3.865542</v>
+        <v>10.53373</v>
       </c>
       <c r="O18">
-        <v>0.1316345672057059</v>
+        <v>0.2959447949634939</v>
       </c>
       <c r="P18">
-        <v>0.1316345672057059</v>
+        <v>0.2959447949634939</v>
       </c>
       <c r="Q18">
-        <v>3.037777842652667</v>
+        <v>5.478060434427777</v>
       </c>
       <c r="R18">
-        <v>27.340000583874</v>
+        <v>49.30254390984999</v>
       </c>
       <c r="S18">
-        <v>0.03170426041520863</v>
+        <v>0.03891583702780958</v>
       </c>
       <c r="T18">
-        <v>0.03170426041520863</v>
+        <v>0.03891583702780958</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1591,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.357582333333333</v>
+        <v>1.560148333333333</v>
       </c>
       <c r="H19">
-        <v>7.072747</v>
+        <v>4.680445</v>
       </c>
       <c r="I19">
-        <v>0.2408505690276951</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="J19">
-        <v>0.2408505690276951</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.896675</v>
+        <v>0.102655</v>
       </c>
       <c r="N19">
-        <v>2.690025</v>
+        <v>0.307965</v>
       </c>
       <c r="O19">
-        <v>0.09160430197046855</v>
+        <v>0.008652266460307262</v>
       </c>
       <c r="P19">
-        <v>0.09160430197046854</v>
+        <v>0.008652266460307262</v>
       </c>
       <c r="Q19">
-        <v>2.113985138741667</v>
+        <v>0.1601570271583333</v>
       </c>
       <c r="R19">
-        <v>19.025866248675</v>
+        <v>1.441413244425</v>
       </c>
       <c r="S19">
-        <v>0.02206294825497216</v>
+        <v>0.001137746624440666</v>
       </c>
       <c r="T19">
-        <v>0.02206294825497215</v>
+        <v>0.001137746624440666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1638,13 +1641,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1653,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.357582333333333</v>
+        <v>2.533054</v>
       </c>
       <c r="H20">
-        <v>7.072747</v>
+        <v>7.599162</v>
       </c>
       <c r="I20">
-        <v>0.2408505690276951</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="J20">
-        <v>0.2408505690276951</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1671,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.357582333333333</v>
+        <v>2.868906666666667</v>
       </c>
       <c r="N20">
-        <v>7.072747</v>
+        <v>8.606720000000001</v>
       </c>
       <c r="O20">
-        <v>0.2408505690276951</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="P20">
-        <v>0.2408505690276951</v>
+        <v>0.2418055129292476</v>
       </c>
       <c r="Q20">
-        <v>5.558194458445444</v>
+        <v>7.267095507626668</v>
       </c>
       <c r="R20">
-        <v>50.023750126009</v>
+        <v>65.40385956864</v>
       </c>
       <c r="S20">
-        <v>0.05800899660096451</v>
+        <v>0.0516250428094935</v>
       </c>
       <c r="T20">
-        <v>0.0580089966009645</v>
+        <v>0.0516250428094935</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1700,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1715,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.357582333333333</v>
+        <v>2.533054</v>
       </c>
       <c r="H21">
-        <v>7.072747</v>
+        <v>7.599162</v>
       </c>
       <c r="I21">
-        <v>0.2408505690276951</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="J21">
-        <v>0.2408505690276951</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1733,42 +1736,42 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.895740333333334</v>
+        <v>1.288514</v>
       </c>
       <c r="N21">
-        <v>8.687221000000001</v>
+        <v>3.865542</v>
       </c>
       <c r="O21">
-        <v>0.2958287806872412</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="P21">
-        <v>0.2958287806872411</v>
+        <v>0.108602274276327</v>
       </c>
       <c r="Q21">
-        <v>6.826946251787446</v>
+        <v>3.263875541756</v>
       </c>
       <c r="R21">
-        <v>61.442516266087</v>
+        <v>29.374879875804</v>
       </c>
       <c r="S21">
-        <v>0.07125053016329125</v>
+        <v>0.02318639054505028</v>
       </c>
       <c r="T21">
-        <v>0.07125053016329122</v>
+        <v>0.02318639054505028</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1777,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.895740333333334</v>
+        <v>2.533054</v>
       </c>
       <c r="H22">
-        <v>8.687221000000001</v>
+        <v>7.599162</v>
       </c>
       <c r="I22">
-        <v>0.2958287806872412</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="J22">
-        <v>0.2958287806872411</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1795,42 +1798,42 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.350057</v>
+        <v>1.560148333333333</v>
       </c>
       <c r="N22">
-        <v>7.050171</v>
+        <v>4.680445</v>
       </c>
       <c r="O22">
-        <v>0.2400817811088894</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="P22">
-        <v>0.2400817811088894</v>
+        <v>0.1314969470323342</v>
       </c>
       <c r="Q22">
-        <v>6.805154840532334</v>
+        <v>3.951939976343333</v>
       </c>
       <c r="R22">
-        <v>61.24639356479101</v>
+        <v>35.56745978708999</v>
       </c>
       <c r="S22">
-        <v>0.07102310057066388</v>
+        <v>0.02807436206737058</v>
       </c>
       <c r="T22">
-        <v>0.07102310057066386</v>
+        <v>0.02807436206737058</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1839,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.895740333333334</v>
+        <v>2.533054</v>
       </c>
       <c r="H23">
-        <v>8.687221000000001</v>
+        <v>7.599162</v>
       </c>
       <c r="I23">
-        <v>0.2958287806872412</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="J23">
-        <v>0.2958287806872411</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1857,43 +1860,43 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.288514</v>
+        <v>2.533054</v>
       </c>
       <c r="N23">
-        <v>3.865542</v>
+        <v>7.599162</v>
       </c>
       <c r="O23">
-        <v>0.1316345672057059</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="P23">
-        <v>0.1316345672057059</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="Q23">
-        <v>3.731201959864668</v>
+        <v>6.416362566916</v>
       </c>
       <c r="R23">
-        <v>33.58081763878201</v>
+        <v>57.747263102244</v>
       </c>
       <c r="S23">
-        <v>0.03894129351275667</v>
+        <v>0.04558148325567418</v>
       </c>
       <c r="T23">
-        <v>0.03894129351275667</v>
+        <v>0.0455814832556742</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1901,61 +1904,61 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.895740333333334</v>
+        <v>2.533054</v>
       </c>
       <c r="H24">
-        <v>8.687221000000001</v>
+        <v>7.599162</v>
       </c>
       <c r="I24">
-        <v>0.2958287806872412</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="J24">
-        <v>0.2958287806872411</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.896675</v>
+        <v>3.511243333333333</v>
       </c>
       <c r="N24">
-        <v>2.690025</v>
+        <v>10.53373</v>
       </c>
       <c r="O24">
-        <v>0.09160430197046855</v>
+        <v>0.2959447949634939</v>
       </c>
       <c r="P24">
-        <v>0.09160430197046854</v>
+        <v>0.2959447949634939</v>
       </c>
       <c r="Q24">
-        <v>2.596537963391667</v>
+        <v>8.894168970473332</v>
       </c>
       <c r="R24">
-        <v>23.368841670525</v>
+        <v>80.04752073425999</v>
       </c>
       <c r="S24">
-        <v>0.02709918895762956</v>
+        <v>0.06318368230796932</v>
       </c>
       <c r="T24">
-        <v>0.02709918895762954</v>
+        <v>0.06318368230796934</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1963,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.895740333333334</v>
+        <v>2.533054</v>
       </c>
       <c r="H25">
-        <v>8.687221000000001</v>
+        <v>7.599162</v>
       </c>
       <c r="I25">
-        <v>0.2958287806872412</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="J25">
-        <v>0.2958287806872411</v>
+        <v>0.2134982043382899</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>2.357582333333333</v>
+        <v>0.102655</v>
       </c>
       <c r="N25">
-        <v>7.072747</v>
+        <v>0.307965</v>
       </c>
       <c r="O25">
-        <v>0.2408505690276951</v>
+        <v>0.008652266460307262</v>
       </c>
       <c r="P25">
-        <v>0.2408505690276951</v>
+        <v>0.008652266460307262</v>
       </c>
       <c r="Q25">
-        <v>6.826946251787446</v>
+        <v>0.26003065837</v>
       </c>
       <c r="R25">
-        <v>61.442516266087</v>
+        <v>2.34027592533</v>
       </c>
       <c r="S25">
-        <v>0.07125053016329125</v>
+        <v>0.001847243352732012</v>
       </c>
       <c r="T25">
-        <v>0.07125053016329122</v>
+        <v>0.001847243352732012</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2010,61 +2013,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.511243333333333</v>
+      </c>
+      <c r="H26">
+        <v>10.53373</v>
+      </c>
+      <c r="I26">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="J26">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.868906666666667</v>
+      </c>
+      <c r="N26">
+        <v>8.606720000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.2418055129292476</v>
+      </c>
+      <c r="P26">
+        <v>0.2418055129292476</v>
+      </c>
+      <c r="Q26">
+        <v>10.07342940728889</v>
+      </c>
+      <c r="R26">
+        <v>90.6608646656</v>
+      </c>
+      <c r="S26">
+        <v>0.07156108294488865</v>
+      </c>
+      <c r="T26">
+        <v>0.07156108294488865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.511243333333333</v>
+      </c>
+      <c r="H27">
+        <v>10.53373</v>
+      </c>
+      <c r="I27">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="J27">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.288514</v>
+      </c>
+      <c r="N27">
+        <v>3.865542</v>
+      </c>
+      <c r="O27">
+        <v>0.108602274276327</v>
+      </c>
+      <c r="P27">
+        <v>0.108602274276327</v>
+      </c>
+      <c r="Q27">
+        <v>4.524286192406667</v>
+      </c>
+      <c r="R27">
+        <v>40.71857573166</v>
+      </c>
+      <c r="S27">
+        <v>0.03214027779327674</v>
+      </c>
+      <c r="T27">
+        <v>0.03214027779327674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.511243333333333</v>
+      </c>
+      <c r="H28">
+        <v>10.53373</v>
+      </c>
+      <c r="I28">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="J28">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.560148333333333</v>
+      </c>
+      <c r="N28">
+        <v>4.680445</v>
+      </c>
+      <c r="O28">
+        <v>0.1314969470323342</v>
+      </c>
+      <c r="P28">
+        <v>0.1314969470323342</v>
+      </c>
+      <c r="Q28">
+        <v>5.478060434427777</v>
+      </c>
+      <c r="R28">
+        <v>49.30254390984999</v>
+      </c>
+      <c r="S28">
+        <v>0.03891583702780958</v>
+      </c>
+      <c r="T28">
+        <v>0.03891583702780958</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.511243333333333</v>
+      </c>
+      <c r="H29">
+        <v>10.53373</v>
+      </c>
+      <c r="I29">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="J29">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2.533054</v>
+      </c>
+      <c r="N29">
+        <v>7.599162</v>
+      </c>
+      <c r="O29">
+        <v>0.2134982043382899</v>
+      </c>
+      <c r="P29">
+        <v>0.2134982043382899</v>
+      </c>
+      <c r="Q29">
+        <v>8.894168970473332</v>
+      </c>
+      <c r="R29">
+        <v>80.04752073425999</v>
+      </c>
+      <c r="S29">
+        <v>0.06318368230796932</v>
+      </c>
+      <c r="T29">
+        <v>0.06318368230796934</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.511243333333333</v>
+      </c>
+      <c r="H30">
+        <v>10.53373</v>
+      </c>
+      <c r="I30">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="J30">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.511243333333333</v>
+      </c>
+      <c r="N30">
+        <v>10.53373</v>
+      </c>
+      <c r="O30">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="P30">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="Q30">
+        <v>12.32882974587777</v>
+      </c>
+      <c r="R30">
+        <v>110.9594677129</v>
+      </c>
+      <c r="S30">
+        <v>0.08758332166598445</v>
+      </c>
+      <c r="T30">
+        <v>0.08758332166598445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.511243333333333</v>
+      </c>
+      <c r="H31">
+        <v>10.53373</v>
+      </c>
+      <c r="I31">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="J31">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.102655</v>
+      </c>
+      <c r="N31">
+        <v>0.307965</v>
+      </c>
+      <c r="O31">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="P31">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="Q31">
+        <v>0.3604466843833333</v>
+      </c>
+      <c r="R31">
+        <v>3.244020159449999</v>
+      </c>
+      <c r="S31">
+        <v>0.002560593223565148</v>
+      </c>
+      <c r="T31">
+        <v>0.002560593223565148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.102655</v>
+      </c>
+      <c r="H32">
+        <v>0.307965</v>
+      </c>
+      <c r="I32">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="J32">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.868906666666667</v>
+      </c>
+      <c r="N32">
+        <v>8.606720000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.2418055129292476</v>
+      </c>
+      <c r="P32">
+        <v>0.2418055129292476</v>
+      </c>
+      <c r="Q32">
+        <v>0.2945076138666667</v>
+      </c>
+      <c r="R32">
+        <v>2.6505685248</v>
+      </c>
+      <c r="S32">
+        <v>0.002092165729435123</v>
+      </c>
+      <c r="T32">
+        <v>0.002092165729435123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.102655</v>
+      </c>
+      <c r="H33">
+        <v>0.307965</v>
+      </c>
+      <c r="I33">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="J33">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.288514</v>
+      </c>
+      <c r="N33">
+        <v>3.865542</v>
+      </c>
+      <c r="O33">
+        <v>0.108602274276327</v>
+      </c>
+      <c r="P33">
+        <v>0.108602274276327</v>
+      </c>
+      <c r="Q33">
+        <v>0.13227240467</v>
+      </c>
+      <c r="R33">
+        <v>1.19045164203</v>
+      </c>
+      <c r="S33">
+        <v>0.0009396558152341546</v>
+      </c>
+      <c r="T33">
+        <v>0.0009396558152341546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.102655</v>
+      </c>
+      <c r="H34">
+        <v>0.307965</v>
+      </c>
+      <c r="I34">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="J34">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.560148333333333</v>
+      </c>
+      <c r="N34">
+        <v>4.680445</v>
+      </c>
+      <c r="O34">
+        <v>0.1314969470323342</v>
+      </c>
+      <c r="P34">
+        <v>0.1314969470323342</v>
+      </c>
+      <c r="Q34">
+        <v>0.1601570271583333</v>
+      </c>
+      <c r="R34">
+        <v>1.441413244425</v>
+      </c>
+      <c r="S34">
+        <v>0.001137746624440666</v>
+      </c>
+      <c r="T34">
+        <v>0.001137746624440666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.102655</v>
+      </c>
+      <c r="H35">
+        <v>0.307965</v>
+      </c>
+      <c r="I35">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="J35">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.533054</v>
+      </c>
+      <c r="N35">
+        <v>7.599162</v>
+      </c>
+      <c r="O35">
+        <v>0.2134982043382899</v>
+      </c>
+      <c r="P35">
+        <v>0.2134982043382899</v>
+      </c>
+      <c r="Q35">
+        <v>0.26003065837</v>
+      </c>
+      <c r="R35">
+        <v>2.34027592533</v>
+      </c>
+      <c r="S35">
+        <v>0.001847243352732012</v>
+      </c>
+      <c r="T35">
+        <v>0.001847243352732012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.895740333333334</v>
-      </c>
-      <c r="H26">
-        <v>8.687221000000001</v>
-      </c>
-      <c r="I26">
-        <v>0.2958287806872412</v>
-      </c>
-      <c r="J26">
-        <v>0.2958287806872411</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>2.895740333333334</v>
-      </c>
-      <c r="N26">
-        <v>8.687221000000001</v>
-      </c>
-      <c r="O26">
-        <v>0.2958287806872412</v>
-      </c>
-      <c r="P26">
-        <v>0.2958287806872411</v>
-      </c>
-      <c r="Q26">
-        <v>8.385312078093447</v>
-      </c>
-      <c r="R26">
-        <v>75.46780870284101</v>
-      </c>
-      <c r="S26">
-        <v>0.08751466748289984</v>
-      </c>
-      <c r="T26">
-        <v>0.08751466748289979</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.102655</v>
+      </c>
+      <c r="H36">
+        <v>0.307965</v>
+      </c>
+      <c r="I36">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="J36">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.511243333333333</v>
+      </c>
+      <c r="N36">
+        <v>10.53373</v>
+      </c>
+      <c r="O36">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="P36">
+        <v>0.2959447949634939</v>
+      </c>
+      <c r="Q36">
+        <v>0.3604466843833333</v>
+      </c>
+      <c r="R36">
+        <v>3.244020159449999</v>
+      </c>
+      <c r="S36">
+        <v>0.002560593223565148</v>
+      </c>
+      <c r="T36">
+        <v>0.002560593223565148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.102655</v>
+      </c>
+      <c r="H37">
+        <v>0.307965</v>
+      </c>
+      <c r="I37">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="J37">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.102655</v>
+      </c>
+      <c r="N37">
+        <v>0.307965</v>
+      </c>
+      <c r="O37">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="P37">
+        <v>0.008652266460307262</v>
+      </c>
+      <c r="Q37">
+        <v>0.010538049025</v>
+      </c>
+      <c r="R37">
+        <v>0.09484244122499999</v>
+      </c>
+      <c r="S37">
+        <v>7.486171490015795E-05</v>
+      </c>
+      <c r="T37">
+        <v>7.486171490015795E-05</v>
       </c>
     </row>
   </sheetData>
